--- a/Day08/result/kto_인도.xlsx
+++ b/Day08/result/kto_인도.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2318</v>
+        <v>1646</v>
       </c>
       <c r="C2" t="n">
-        <v>2656</v>
+        <v>1387</v>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="F2" t="n">
-        <v>3474</v>
+        <v>2918</v>
       </c>
       <c r="G2" t="n">
-        <v>8671</v>
+        <v>6026</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>26.7</v>
+        <v>27.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
@@ -538,22 +538,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2318</v>
+        <v>951</v>
       </c>
       <c r="C3" t="n">
-        <v>2656</v>
+        <v>1540</v>
       </c>
       <c r="D3" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F3" t="n">
-        <v>3474</v>
+        <v>2803</v>
       </c>
       <c r="G3" t="n">
-        <v>8671</v>
+        <v>5439</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>26.7</v>
+        <v>17.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -579,22 +579,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2318</v>
+        <v>1188</v>
       </c>
       <c r="C4" t="n">
-        <v>2656</v>
+        <v>2018</v>
       </c>
       <c r="D4" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="F4" t="n">
-        <v>3474</v>
+        <v>3525</v>
       </c>
       <c r="G4" t="n">
-        <v>8671</v>
+        <v>6810</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>26.7</v>
+        <v>17.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2318</v>
+        <v>1420</v>
       </c>
       <c r="C5" t="n">
-        <v>2656</v>
+        <v>2174</v>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E5" t="n">
-        <v>177</v>
+        <v>22</v>
       </c>
       <c r="F5" t="n">
-        <v>3474</v>
+        <v>3522</v>
       </c>
       <c r="G5" t="n">
-        <v>8671</v>
+        <v>7155</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>26.7</v>
+        <v>19.8</v>
       </c>
       <c r="K5" t="n">
         <v>0.3</v>
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2318</v>
+        <v>1729</v>
       </c>
       <c r="C6" t="n">
-        <v>2656</v>
+        <v>2061</v>
       </c>
       <c r="D6" t="n">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="F6" t="n">
-        <v>3474</v>
+        <v>4483</v>
       </c>
       <c r="G6" t="n">
-        <v>8671</v>
+        <v>8318</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>26.7</v>
+        <v>20.8</v>
       </c>
       <c r="K6" t="n">
         <v>0.3</v>
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2318</v>
+        <v>2663</v>
       </c>
       <c r="C7" t="n">
-        <v>2656</v>
+        <v>1929</v>
       </c>
       <c r="D7" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E7" t="n">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="F7" t="n">
-        <v>3474</v>
+        <v>4349</v>
       </c>
       <c r="G7" t="n">
-        <v>8671</v>
+        <v>8988</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>26.7</v>
+        <v>29.6</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2318</v>
+        <v>1489</v>
       </c>
       <c r="C8" t="n">
-        <v>2656</v>
+        <v>1894</v>
       </c>
       <c r="D8" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="F8" t="n">
-        <v>3474</v>
+        <v>4652</v>
       </c>
       <c r="G8" t="n">
-        <v>8671</v>
+        <v>8094</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>26.7</v>
+        <v>18.4</v>
       </c>
       <c r="K8" t="n">
         <v>0.3</v>
@@ -784,22 +784,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2318</v>
+        <v>1513</v>
       </c>
       <c r="C9" t="n">
-        <v>2656</v>
+        <v>2130</v>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="F9" t="n">
-        <v>3474</v>
+        <v>4628</v>
       </c>
       <c r="G9" t="n">
-        <v>8671</v>
+        <v>8490</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>26.7</v>
+        <v>17.8</v>
       </c>
       <c r="K9" t="n">
         <v>0.3</v>
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2318</v>
+        <v>1422</v>
       </c>
       <c r="C10" t="n">
-        <v>2656</v>
+        <v>2115</v>
       </c>
       <c r="D10" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="F10" t="n">
-        <v>3474</v>
+        <v>3671</v>
       </c>
       <c r="G10" t="n">
-        <v>8671</v>
+        <v>7289</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>26.7</v>
+        <v>19.5</v>
       </c>
       <c r="K10" t="n">
         <v>0.3</v>
@@ -866,22 +866,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318</v>
+        <v>2276</v>
       </c>
       <c r="C11" t="n">
-        <v>2656</v>
+        <v>2612</v>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
-        <v>3474</v>
+        <v>3306</v>
       </c>
       <c r="G11" t="n">
-        <v>8671</v>
+        <v>8234</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>26.7</v>
+        <v>27.6</v>
       </c>
       <c r="K11" t="n">
         <v>0.3</v>
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2318</v>
+        <v>1343</v>
       </c>
       <c r="C12" t="n">
-        <v>2656</v>
+        <v>2386</v>
       </c>
       <c r="D12" t="n">
+        <v>76</v>
+      </c>
+      <c r="E12" t="n">
         <v>46</v>
       </c>
-      <c r="E12" t="n">
-        <v>177</v>
-      </c>
       <c r="F12" t="n">
-        <v>3474</v>
+        <v>2172</v>
       </c>
       <c r="G12" t="n">
-        <v>8671</v>
+        <v>6023</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>26.7</v>
+        <v>22.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13">
@@ -948,22 +948,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2318</v>
+        <v>1294</v>
       </c>
       <c r="C13" t="n">
-        <v>2656</v>
+        <v>1712</v>
       </c>
       <c r="D13" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>3474</v>
+        <v>2639</v>
       </c>
       <c r="G13" t="n">
-        <v>8671</v>
+        <v>5681</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>26.7</v>
+        <v>22.8</v>
       </c>
       <c r="K13" t="n">
         <v>0.3</v>
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318</v>
+        <v>1215</v>
       </c>
       <c r="C14" t="n">
-        <v>2656</v>
+        <v>1745</v>
       </c>
       <c r="D14" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="F14" t="n">
-        <v>3474</v>
+        <v>2823</v>
       </c>
       <c r="G14" t="n">
-        <v>8671</v>
+        <v>5868</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>26.7</v>
+        <v>20.7</v>
       </c>
       <c r="K14" t="n">
         <v>0.3</v>
@@ -1030,22 +1030,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2318</v>
+        <v>1014</v>
       </c>
       <c r="C15" t="n">
-        <v>2656</v>
+        <v>1885</v>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="F15" t="n">
-        <v>3474</v>
+        <v>3365</v>
       </c>
       <c r="G15" t="n">
-        <v>8671</v>
+        <v>6463</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>26.7</v>
+        <v>15.7</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2318</v>
+        <v>1319</v>
       </c>
       <c r="C16" t="n">
-        <v>2656</v>
+        <v>1997</v>
       </c>
       <c r="D16" t="n">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="F16" t="n">
-        <v>3474</v>
+        <v>3866</v>
       </c>
       <c r="G16" t="n">
-        <v>8671</v>
+        <v>7260</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>26.7</v>
+        <v>18.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17">
@@ -1112,22 +1112,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318</v>
+        <v>1764</v>
       </c>
       <c r="C17" t="n">
-        <v>2656</v>
+        <v>1945</v>
       </c>
       <c r="D17" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="F17" t="n">
-        <v>3474</v>
+        <v>3932</v>
       </c>
       <c r="G17" t="n">
-        <v>8671</v>
+        <v>7674</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>26.7</v>
+        <v>23</v>
       </c>
       <c r="K17" t="n">
         <v>0.3</v>
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2318</v>
+        <v>2270</v>
       </c>
       <c r="C18" t="n">
-        <v>2656</v>
+        <v>2403</v>
       </c>
       <c r="D18" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="F18" t="n">
-        <v>3474</v>
+        <v>4138</v>
       </c>
       <c r="G18" t="n">
-        <v>8671</v>
+        <v>8866</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>26.7</v>
+        <v>25.6</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19">
@@ -1194,22 +1194,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2318</v>
+        <v>1576</v>
       </c>
       <c r="C19" t="n">
-        <v>2656</v>
+        <v>2155</v>
       </c>
       <c r="D19" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="F19" t="n">
-        <v>3474</v>
+        <v>4091</v>
       </c>
       <c r="G19" t="n">
-        <v>8671</v>
+        <v>7878</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>26.7</v>
+        <v>20</v>
       </c>
       <c r="K19" t="n">
         <v>0.3</v>
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318</v>
+        <v>1672</v>
       </c>
       <c r="C20" t="n">
-        <v>2656</v>
+        <v>2136</v>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="F20" t="n">
-        <v>3474</v>
+        <v>4016</v>
       </c>
       <c r="G20" t="n">
-        <v>8671</v>
+        <v>7906</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>26.7</v>
+        <v>21.1</v>
       </c>
       <c r="K20" t="n">
         <v>0.3</v>
@@ -1276,22 +1276,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2318</v>
+        <v>1759</v>
       </c>
       <c r="C21" t="n">
-        <v>2656</v>
+        <v>2033</v>
       </c>
       <c r="D21" t="n">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="E21" t="n">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="F21" t="n">
-        <v>3474</v>
+        <v>4717</v>
       </c>
       <c r="G21" t="n">
-        <v>8671</v>
+        <v>8662</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>26.7</v>
+        <v>20.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2318</v>
+        <v>1727</v>
       </c>
       <c r="C22" t="n">
-        <v>2656</v>
+        <v>2058</v>
       </c>
       <c r="D22" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E22" t="n">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="F22" t="n">
-        <v>3474</v>
+        <v>4698</v>
       </c>
       <c r="G22" t="n">
-        <v>8671</v>
+        <v>8579</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1345,7 +1345,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>26.7</v>
+        <v>20.1</v>
       </c>
       <c r="K22" t="n">
         <v>0.3</v>
@@ -1358,22 +1358,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318</v>
+        <v>2442</v>
       </c>
       <c r="C23" t="n">
-        <v>2656</v>
+        <v>2262</v>
       </c>
       <c r="D23" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
-        <v>177</v>
+        <v>40</v>
       </c>
       <c r="F23" t="n">
-        <v>3474</v>
+        <v>4382</v>
       </c>
       <c r="G23" t="n">
-        <v>8671</v>
+        <v>9131</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1399,22 +1399,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2318</v>
+        <v>1472</v>
       </c>
       <c r="C24" t="n">
-        <v>2656</v>
+        <v>2454</v>
       </c>
       <c r="D24" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E24" t="n">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="F24" t="n">
-        <v>3474</v>
+        <v>3154</v>
       </c>
       <c r="G24" t="n">
-        <v>8671</v>
+        <v>7131</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>26.7</v>
+        <v>20.6</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2318</v>
+        <v>1714</v>
       </c>
       <c r="C25" t="n">
-        <v>2656</v>
+        <v>1581</v>
       </c>
       <c r="D25" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="F25" t="n">
-        <v>3474</v>
+        <v>3293</v>
       </c>
       <c r="G25" t="n">
-        <v>8671</v>
+        <v>6629</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>26.7</v>
+        <v>25.9</v>
       </c>
       <c r="K25" t="n">
         <v>0.3</v>
@@ -1481,22 +1481,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318</v>
+        <v>1861</v>
       </c>
       <c r="C26" t="n">
-        <v>2656</v>
+        <v>1470</v>
       </c>
       <c r="D26" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F26" t="n">
-        <v>3474</v>
+        <v>3296</v>
       </c>
       <c r="G26" t="n">
-        <v>8671</v>
+        <v>6730</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>26.7</v>
+        <v>27.7</v>
       </c>
       <c r="K26" t="n">
         <v>0.3</v>
@@ -1522,22 +1522,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2318</v>
+        <v>1644</v>
       </c>
       <c r="C27" t="n">
-        <v>2656</v>
+        <v>1772</v>
       </c>
       <c r="D27" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E27" t="n">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F27" t="n">
-        <v>3474</v>
+        <v>3254</v>
       </c>
       <c r="G27" t="n">
-        <v>8671</v>
+        <v>6850</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>26.7</v>
+        <v>24</v>
       </c>
       <c r="K27" t="n">
         <v>0.3</v>
@@ -1563,22 +1563,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2318</v>
+        <v>1634</v>
       </c>
       <c r="C28" t="n">
-        <v>2656</v>
+        <v>1887</v>
       </c>
       <c r="D28" t="n">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="E28" t="n">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="F28" t="n">
-        <v>3474</v>
+        <v>2167</v>
       </c>
       <c r="G28" t="n">
-        <v>8671</v>
+        <v>5886</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1591,10 +1591,10 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>26.7</v>
+        <v>27.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318</v>
+        <v>2339</v>
       </c>
       <c r="C29" t="n">
-        <v>2656</v>
+        <v>2026</v>
       </c>
       <c r="D29" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E29" t="n">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="F29" t="n">
-        <v>3474</v>
+        <v>2953</v>
       </c>
       <c r="G29" t="n">
-        <v>8671</v>
+        <v>7363</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>26.7</v>
+        <v>31.8</v>
       </c>
       <c r="K29" t="n">
         <v>0.3</v>
@@ -1645,22 +1645,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2318</v>
+        <v>2343</v>
       </c>
       <c r="C30" t="n">
-        <v>2656</v>
+        <v>2072</v>
       </c>
       <c r="D30" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E30" t="n">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="F30" t="n">
-        <v>3474</v>
+        <v>4274</v>
       </c>
       <c r="G30" t="n">
-        <v>8671</v>
+        <v>8738</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1673,7 +1673,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="K30" t="n">
         <v>0.3</v>
@@ -1686,22 +1686,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2318</v>
+        <v>2842</v>
       </c>
       <c r="C31" t="n">
-        <v>2656</v>
+        <v>1866</v>
       </c>
       <c r="D31" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="F31" t="n">
-        <v>3474</v>
+        <v>3882</v>
       </c>
       <c r="G31" t="n">
-        <v>8671</v>
+        <v>8635</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1714,10 +1714,10 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>26.7</v>
+        <v>32.9</v>
       </c>
       <c r="K31" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32">
@@ -1727,22 +1727,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318</v>
+        <v>2076</v>
       </c>
       <c r="C32" t="n">
-        <v>2656</v>
+        <v>1947</v>
       </c>
       <c r="D32" t="n">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="F32" t="n">
-        <v>3474</v>
+        <v>3487</v>
       </c>
       <c r="G32" t="n">
-        <v>8671</v>
+        <v>7580</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>26.7</v>
+        <v>27.4</v>
       </c>
       <c r="K32" t="n">
         <v>0.3</v>
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2318</v>
+        <v>1840</v>
       </c>
       <c r="C33" t="n">
-        <v>2656</v>
+        <v>1755</v>
       </c>
       <c r="D33" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E33" t="n">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="F33" t="n">
-        <v>3474</v>
+        <v>4397</v>
       </c>
       <c r="G33" t="n">
-        <v>8671</v>
+        <v>8158</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1796,10 +1796,10 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>26.7</v>
+        <v>22.6</v>
       </c>
       <c r="K33" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34">
@@ -1809,22 +1809,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2318</v>
+        <v>2011</v>
       </c>
       <c r="C34" t="n">
-        <v>2656</v>
+        <v>2134</v>
       </c>
       <c r="D34" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E34" t="n">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="F34" t="n">
-        <v>3474</v>
+        <v>4812</v>
       </c>
       <c r="G34" t="n">
-        <v>8671</v>
+        <v>9038</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>26.7</v>
+        <v>22.3</v>
       </c>
       <c r="K34" t="n">
         <v>0.3</v>
@@ -1850,22 +1850,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318</v>
+        <v>2471</v>
       </c>
       <c r="C35" t="n">
-        <v>2656</v>
+        <v>2478</v>
       </c>
       <c r="D35" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E35" t="n">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="F35" t="n">
-        <v>3474</v>
+        <v>4413</v>
       </c>
       <c r="G35" t="n">
-        <v>8671</v>
+        <v>9431</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="K35" t="n">
         <v>0.3</v>
@@ -1891,22 +1891,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2318</v>
+        <v>1794</v>
       </c>
       <c r="C36" t="n">
-        <v>2656</v>
+        <v>2231</v>
       </c>
       <c r="D36" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E36" t="n">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="F36" t="n">
-        <v>3474</v>
+        <v>2851</v>
       </c>
       <c r="G36" t="n">
-        <v>8671</v>
+        <v>6929</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>26.7</v>
+        <v>25.9</v>
       </c>
       <c r="K36" t="n">
         <v>0.3</v>
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2318</v>
+        <v>1785</v>
       </c>
       <c r="C37" t="n">
-        <v>2656</v>
+        <v>1751</v>
       </c>
       <c r="D37" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E37" t="n">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="F37" t="n">
-        <v>3474</v>
+        <v>2762</v>
       </c>
       <c r="G37" t="n">
-        <v>8671</v>
+        <v>6362</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>26.7</v>
+        <v>28.1</v>
       </c>
       <c r="K37" t="n">
         <v>0.3</v>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318</v>
+        <v>2020</v>
       </c>
       <c r="C38" t="n">
-        <v>2656</v>
+        <v>1962</v>
       </c>
       <c r="D38" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="F38" t="n">
-        <v>3474</v>
+        <v>2792</v>
       </c>
       <c r="G38" t="n">
-        <v>8671</v>
+        <v>6870</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>26.7</v>
+        <v>29.4</v>
       </c>
       <c r="K38" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="39">
@@ -2014,22 +2014,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2318</v>
+        <v>1409</v>
       </c>
       <c r="C39" t="n">
-        <v>2656</v>
+        <v>1752</v>
       </c>
       <c r="D39" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E39" t="n">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="F39" t="n">
-        <v>3474</v>
+        <v>2679</v>
       </c>
       <c r="G39" t="n">
-        <v>8671</v>
+        <v>6046</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2042,10 +2042,10 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>26.7</v>
+        <v>23.3</v>
       </c>
       <c r="K39" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="40">
@@ -2055,22 +2055,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2318</v>
+        <v>1833</v>
       </c>
       <c r="C40" t="n">
-        <v>2656</v>
+        <v>2293</v>
       </c>
       <c r="D40" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E40" t="n">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="F40" t="n">
-        <v>3474</v>
+        <v>5753</v>
       </c>
       <c r="G40" t="n">
-        <v>8671</v>
+        <v>9989</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2083,10 +2083,10 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>26.7</v>
+        <v>18.4</v>
       </c>
       <c r="K40" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41">
@@ -2096,22 +2096,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318</v>
+        <v>1795</v>
       </c>
       <c r="C41" t="n">
-        <v>2656</v>
+        <v>2272</v>
       </c>
       <c r="D41" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>177</v>
+        <v>19</v>
       </c>
       <c r="F41" t="n">
-        <v>3474</v>
+        <v>5776</v>
       </c>
       <c r="G41" t="n">
-        <v>8671</v>
+        <v>9868</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2124,10 +2124,10 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>26.7</v>
+        <v>18.2</v>
       </c>
       <c r="K41" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="42">
@@ -2137,22 +2137,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2318</v>
+        <v>2150</v>
       </c>
       <c r="C42" t="n">
-        <v>2656</v>
+        <v>2494</v>
       </c>
       <c r="D42" t="n">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="E42" t="n">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="F42" t="n">
-        <v>3474</v>
+        <v>5307</v>
       </c>
       <c r="G42" t="n">
-        <v>8671</v>
+        <v>10010</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>26.7</v>
+        <v>21.5</v>
       </c>
       <c r="K42" t="n">
         <v>0.3</v>
@@ -2178,22 +2178,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2318</v>
+        <v>2228</v>
       </c>
       <c r="C43" t="n">
-        <v>2656</v>
+        <v>2603</v>
       </c>
       <c r="D43" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E43" t="n">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="F43" t="n">
-        <v>3474</v>
+        <v>8221</v>
       </c>
       <c r="G43" t="n">
-        <v>8671</v>
+        <v>13114</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>26.7</v>
+        <v>17</v>
       </c>
       <c r="K43" t="n">
         <v>0.3</v>
@@ -2219,22 +2219,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2318</v>
+        <v>1980</v>
       </c>
       <c r="C44" t="n">
-        <v>2656</v>
+        <v>2361</v>
       </c>
       <c r="D44" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E44" t="n">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="F44" t="n">
-        <v>3474</v>
+        <v>9320</v>
       </c>
       <c r="G44" t="n">
-        <v>8671</v>
+        <v>13737</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -2247,10 +2247,10 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>26.7</v>
+        <v>14.4</v>
       </c>
       <c r="K44" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45">
@@ -2260,22 +2260,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2318</v>
+        <v>1840</v>
       </c>
       <c r="C45" t="n">
-        <v>2656</v>
+        <v>2216</v>
       </c>
       <c r="D45" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="E45" t="n">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="F45" t="n">
-        <v>3474</v>
+        <v>10015</v>
       </c>
       <c r="G45" t="n">
-        <v>8671</v>
+        <v>14299</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -2288,10 +2288,10 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>26.7</v>
+        <v>12.9</v>
       </c>
       <c r="K45" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="46">
@@ -2301,22 +2301,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2318</v>
+        <v>2247</v>
       </c>
       <c r="C46" t="n">
-        <v>2656</v>
+        <v>2725</v>
       </c>
       <c r="D46" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E46" t="n">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="F46" t="n">
-        <v>3474</v>
+        <v>7401</v>
       </c>
       <c r="G46" t="n">
-        <v>8671</v>
+        <v>12485</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>26.7</v>
+        <v>18</v>
       </c>
       <c r="K46" t="n">
         <v>0.3</v>
@@ -2342,22 +2342,22 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2318</v>
+        <v>2605</v>
       </c>
       <c r="C47" t="n">
-        <v>2656</v>
+        <v>2718</v>
       </c>
       <c r="D47" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E47" t="n">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="F47" t="n">
-        <v>3474</v>
+        <v>5563</v>
       </c>
       <c r="G47" t="n">
-        <v>8671</v>
+        <v>10970</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>26.7</v>
+        <v>23.7</v>
       </c>
       <c r="K47" t="n">
         <v>0.3</v>
@@ -2383,22 +2383,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2318</v>
+        <v>1857</v>
       </c>
       <c r="C48" t="n">
-        <v>2656</v>
+        <v>2590</v>
       </c>
       <c r="D48" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E48" t="n">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="F48" t="n">
-        <v>3474</v>
+        <v>3539</v>
       </c>
       <c r="G48" t="n">
-        <v>8671</v>
+        <v>8079</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>26.7</v>
+        <v>23</v>
       </c>
       <c r="K48" t="n">
         <v>0.3</v>
@@ -2424,22 +2424,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2318</v>
+        <v>1864</v>
       </c>
       <c r="C49" t="n">
-        <v>2656</v>
+        <v>2112</v>
       </c>
       <c r="D49" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E49" t="n">
-        <v>177</v>
+        <v>56</v>
       </c>
       <c r="F49" t="n">
-        <v>3474</v>
+        <v>3703</v>
       </c>
       <c r="G49" t="n">
-        <v>8671</v>
+        <v>7768</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>26.7</v>
+        <v>24</v>
       </c>
       <c r="K49" t="n">
         <v>0.3</v>
@@ -2465,22 +2465,22 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2318</v>
+        <v>1967</v>
       </c>
       <c r="C50" t="n">
-        <v>2656</v>
+        <v>2083</v>
       </c>
       <c r="D50" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E50" t="n">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="F50" t="n">
-        <v>3474</v>
+        <v>4369</v>
       </c>
       <c r="G50" t="n">
-        <v>8671</v>
+        <v>8532</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>26.7</v>
+        <v>23.1</v>
       </c>
       <c r="K50" t="n">
         <v>0.3</v>
@@ -2506,22 +2506,22 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2318</v>
+        <v>1415</v>
       </c>
       <c r="C51" t="n">
-        <v>2656</v>
+        <v>2453</v>
       </c>
       <c r="D51" t="n">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E51" t="n">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="F51" t="n">
-        <v>3474</v>
+        <v>3737</v>
       </c>
       <c r="G51" t="n">
-        <v>8671</v>
+        <v>7869</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -2534,10 +2534,10 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>26.7</v>
+        <v>18</v>
       </c>
       <c r="K51" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52">
@@ -2547,22 +2547,22 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2318</v>
+        <v>1879</v>
       </c>
       <c r="C52" t="n">
-        <v>2656</v>
+        <v>2899</v>
       </c>
       <c r="D52" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E52" t="n">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="F52" t="n">
-        <v>3474</v>
+        <v>6370</v>
       </c>
       <c r="G52" t="n">
-        <v>8671</v>
+        <v>11289</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>26.7</v>
+        <v>16.6</v>
       </c>
       <c r="K52" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="53">
@@ -2588,22 +2588,22 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2318</v>
+        <v>2307</v>
       </c>
       <c r="C53" t="n">
-        <v>2656</v>
+        <v>2579</v>
       </c>
       <c r="D53" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E53" t="n">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="F53" t="n">
-        <v>3474</v>
+        <v>7700</v>
       </c>
       <c r="G53" t="n">
-        <v>8671</v>
+        <v>12632</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>26.7</v>
+        <v>18.3</v>
       </c>
       <c r="K53" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="54">
@@ -2629,22 +2629,22 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2318</v>
+        <v>2509</v>
       </c>
       <c r="C54" t="n">
-        <v>2656</v>
+        <v>2770</v>
       </c>
       <c r="D54" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E54" t="n">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="F54" t="n">
-        <v>3474</v>
+        <v>7831</v>
       </c>
       <c r="G54" t="n">
-        <v>8671</v>
+        <v>13204</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>26.7</v>
+        <v>19</v>
       </c>
       <c r="K54" t="n">
         <v>0.3</v>
@@ -2670,22 +2670,22 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2318</v>
+        <v>2204</v>
       </c>
       <c r="C55" t="n">
-        <v>2656</v>
+        <v>2955</v>
       </c>
       <c r="D55" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E55" t="n">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="F55" t="n">
-        <v>3474</v>
+        <v>12219</v>
       </c>
       <c r="G55" t="n">
-        <v>8671</v>
+        <v>17470</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2698,10 +2698,10 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>26.7</v>
+        <v>12.6</v>
       </c>
       <c r="K55" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="56">
@@ -2711,22 +2711,22 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="C56" t="n">
-        <v>2656</v>
+        <v>2344</v>
       </c>
       <c r="D56" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E56" t="n">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="F56" t="n">
-        <v>3474</v>
+        <v>10300</v>
       </c>
       <c r="G56" t="n">
-        <v>8671</v>
+        <v>15054</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2739,10 +2739,10 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>26.7</v>
+        <v>15.4</v>
       </c>
       <c r="K56" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="57">
@@ -2752,22 +2752,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2318</v>
+        <v>2045</v>
       </c>
       <c r="C57" t="n">
-        <v>2656</v>
+        <v>2556</v>
       </c>
       <c r="D57" t="n">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E57" t="n">
-        <v>177</v>
+        <v>296</v>
       </c>
       <c r="F57" t="n">
-        <v>3474</v>
+        <v>11223</v>
       </c>
       <c r="G57" t="n">
-        <v>8671</v>
+        <v>16181</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2780,10 +2780,10 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>26.7</v>
+        <v>12.6</v>
       </c>
       <c r="K57" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="58">
@@ -2793,22 +2793,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>2318</v>
+        <v>2926</v>
       </c>
       <c r="C58" t="n">
-        <v>2656</v>
+        <v>2751</v>
       </c>
       <c r="D58" t="n">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="E58" t="n">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="F58" t="n">
-        <v>3474</v>
+        <v>8423</v>
       </c>
       <c r="G58" t="n">
-        <v>8671</v>
+        <v>14305</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>26.7</v>
+        <v>20.5</v>
       </c>
       <c r="K58" t="n">
         <v>0.3</v>
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>2318</v>
+        <v>2746</v>
       </c>
       <c r="C59" t="n">
-        <v>2656</v>
+        <v>2684</v>
       </c>
       <c r="D59" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E59" t="n">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="F59" t="n">
-        <v>3474</v>
+        <v>7428</v>
       </c>
       <c r="G59" t="n">
-        <v>8671</v>
+        <v>12964</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>26.7</v>
+        <v>21.2</v>
       </c>
       <c r="K59" t="n">
         <v>0.3</v>
@@ -2875,22 +2875,22 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2318</v>
+        <v>2106</v>
       </c>
       <c r="C60" t="n">
-        <v>2656</v>
+        <v>3164</v>
       </c>
       <c r="D60" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E60" t="n">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="F60" t="n">
-        <v>3474</v>
+        <v>4659</v>
       </c>
       <c r="G60" t="n">
-        <v>8671</v>
+        <v>10066</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2903,10 +2903,10 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>26.7</v>
+        <v>20.9</v>
       </c>
       <c r="K60" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="61">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2318</v>
+        <v>1953</v>
       </c>
       <c r="C61" t="n">
-        <v>2656</v>
+        <v>2019</v>
       </c>
       <c r="D61" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E61" t="n">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="F61" t="n">
-        <v>3474</v>
+        <v>4107</v>
       </c>
       <c r="G61" t="n">
-        <v>8671</v>
+        <v>8170</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2944,10 +2944,10 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>26.7</v>
+        <v>23.9</v>
       </c>
       <c r="K61" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="62">
@@ -2957,22 +2957,22 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2318</v>
+        <v>1824</v>
       </c>
       <c r="C62" t="n">
-        <v>2656</v>
+        <v>2270</v>
       </c>
       <c r="D62" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E62" t="n">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="F62" t="n">
-        <v>3474</v>
+        <v>3028</v>
       </c>
       <c r="G62" t="n">
-        <v>8671</v>
+        <v>7228</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>26.7</v>
+        <v>25.2</v>
       </c>
       <c r="K62" t="n">
         <v>0.3</v>
@@ -2998,22 +2998,22 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>2318</v>
+        <v>1442</v>
       </c>
       <c r="C63" t="n">
-        <v>2656</v>
+        <v>1892</v>
       </c>
       <c r="D63" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E63" t="n">
-        <v>177</v>
+        <v>314</v>
       </c>
       <c r="F63" t="n">
-        <v>3474</v>
+        <v>4319</v>
       </c>
       <c r="G63" t="n">
-        <v>8671</v>
+        <v>7983</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>26.7</v>
+        <v>18.1</v>
       </c>
       <c r="K63" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="64">
@@ -3039,22 +3039,22 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2318</v>
+        <v>1945</v>
       </c>
       <c r="C64" t="n">
-        <v>2656</v>
+        <v>2712</v>
       </c>
       <c r="D64" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E64" t="n">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="F64" t="n">
-        <v>3474</v>
+        <v>5402</v>
       </c>
       <c r="G64" t="n">
-        <v>8671</v>
+        <v>10206</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -3067,10 +3067,10 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>26.7</v>
+        <v>19.1</v>
       </c>
       <c r="K64" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="65">
@@ -3080,22 +3080,22 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2318</v>
+        <v>2413</v>
       </c>
       <c r="C65" t="n">
-        <v>2656</v>
+        <v>2517</v>
       </c>
       <c r="D65" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E65" t="n">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="F65" t="n">
-        <v>3474</v>
+        <v>6941</v>
       </c>
       <c r="G65" t="n">
-        <v>8671</v>
+        <v>11977</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -3108,10 +3108,10 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>26.7</v>
+        <v>20.1</v>
       </c>
       <c r="K65" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="66">
@@ -3121,22 +3121,22 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2318</v>
+        <v>2983</v>
       </c>
       <c r="C66" t="n">
-        <v>2656</v>
+        <v>2928</v>
       </c>
       <c r="D66" t="n">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="E66" t="n">
-        <v>177</v>
+        <v>44</v>
       </c>
       <c r="F66" t="n">
-        <v>3474</v>
+        <v>8077</v>
       </c>
       <c r="G66" t="n">
-        <v>8671</v>
+        <v>14160</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>26.7</v>
+        <v>21.1</v>
       </c>
       <c r="K66" t="n">
         <v>0.3</v>
@@ -3162,22 +3162,22 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2318</v>
+        <v>2151</v>
       </c>
       <c r="C67" t="n">
-        <v>2656</v>
+        <v>1671</v>
       </c>
       <c r="D67" t="n">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="E67" t="n">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="F67" t="n">
-        <v>3474</v>
+        <v>7878</v>
       </c>
       <c r="G67" t="n">
-        <v>8671</v>
+        <v>11903</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -3190,10 +3190,10 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>26.7</v>
+        <v>18.1</v>
       </c>
       <c r="K67" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="68">
@@ -3203,22 +3203,22 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2318</v>
+        <v>2054</v>
       </c>
       <c r="C68" t="n">
-        <v>2656</v>
+        <v>1834</v>
       </c>
       <c r="D68" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E68" t="n">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="F68" t="n">
-        <v>3474</v>
+        <v>4530</v>
       </c>
       <c r="G68" t="n">
-        <v>8671</v>
+        <v>8551</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>26.7</v>
+        <v>24</v>
       </c>
       <c r="K68" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69">
@@ -3244,22 +3244,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2318</v>
+        <v>2372</v>
       </c>
       <c r="C69" t="n">
-        <v>2656</v>
+        <v>2485</v>
       </c>
       <c r="D69" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E69" t="n">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="F69" t="n">
-        <v>3474</v>
+        <v>26303</v>
       </c>
       <c r="G69" t="n">
-        <v>8671</v>
+        <v>31461</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>26.7</v>
+        <v>7.5</v>
       </c>
       <c r="K69" t="n">
         <v>0.3</v>
@@ -3285,22 +3285,22 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>2318</v>
+        <v>2405</v>
       </c>
       <c r="C70" t="n">
-        <v>2656</v>
+        <v>2477</v>
       </c>
       <c r="D70" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="E70" t="n">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="F70" t="n">
-        <v>3474</v>
+        <v>9092</v>
       </c>
       <c r="G70" t="n">
-        <v>8671</v>
+        <v>14150</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>26.7</v>
+        <v>17</v>
       </c>
       <c r="K70" t="n">
         <v>0.3</v>
@@ -3326,22 +3326,22 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>2318</v>
+        <v>3290</v>
       </c>
       <c r="C71" t="n">
-        <v>2656</v>
+        <v>2785</v>
       </c>
       <c r="D71" t="n">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="E71" t="n">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="F71" t="n">
-        <v>3474</v>
+        <v>9163</v>
       </c>
       <c r="G71" t="n">
-        <v>8671</v>
+        <v>15476</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>26.7</v>
+        <v>21.3</v>
       </c>
       <c r="K71" t="n">
         <v>0.3</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>2318</v>
+        <v>2577</v>
       </c>
       <c r="C72" t="n">
-        <v>2656</v>
+        <v>2446</v>
       </c>
       <c r="D72" t="n">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E72" t="n">
-        <v>177</v>
+        <v>57</v>
       </c>
       <c r="F72" t="n">
-        <v>3474</v>
+        <v>6477</v>
       </c>
       <c r="G72" t="n">
-        <v>8671</v>
+        <v>11644</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>26.7</v>
+        <v>22.1</v>
       </c>
       <c r="K72" t="n">
         <v>0.3</v>
@@ -3408,22 +3408,22 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2318</v>
+        <v>2052</v>
       </c>
       <c r="C73" t="n">
-        <v>2656</v>
+        <v>1684</v>
       </c>
       <c r="D73" t="n">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="E73" t="n">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c r="F73" t="n">
-        <v>3474</v>
+        <v>5071</v>
       </c>
       <c r="G73" t="n">
-        <v>8671</v>
+        <v>8863</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>26.7</v>
+        <v>23.2</v>
       </c>
       <c r="K73" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="74">
@@ -3449,22 +3449,22 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2318</v>
+        <v>2076</v>
       </c>
       <c r="C74" t="n">
-        <v>2656</v>
+        <v>2234</v>
       </c>
       <c r="D74" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E74" t="n">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="F74" t="n">
-        <v>3474</v>
+        <v>5835</v>
       </c>
       <c r="G74" t="n">
-        <v>8671</v>
+        <v>10312</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3477,10 +3477,10 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>26.7</v>
+        <v>20.1</v>
       </c>
       <c r="K74" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="75">
@@ -3490,22 +3490,22 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2318</v>
+        <v>1691</v>
       </c>
       <c r="C75" t="n">
-        <v>2656</v>
+        <v>1906</v>
       </c>
       <c r="D75" t="n">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="E75" t="n">
-        <v>177</v>
+        <v>353</v>
       </c>
       <c r="F75" t="n">
-        <v>3474</v>
+        <v>6258</v>
       </c>
       <c r="G75" t="n">
-        <v>8671</v>
+        <v>10230</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3518,10 +3518,10 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>26.7</v>
+        <v>16.5</v>
       </c>
       <c r="K75" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="76">
@@ -3531,22 +3531,22 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2318</v>
+        <v>2306</v>
       </c>
       <c r="C76" t="n">
-        <v>2656</v>
+        <v>2527</v>
       </c>
       <c r="D76" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E76" t="n">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="F76" t="n">
-        <v>3474</v>
+        <v>8879</v>
       </c>
       <c r="G76" t="n">
-        <v>8671</v>
+        <v>13859</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3559,10 +3559,10 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>26.7</v>
+        <v>16.6</v>
       </c>
       <c r="K76" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="77">
@@ -3572,22 +3572,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2318</v>
+        <v>2458</v>
       </c>
       <c r="C77" t="n">
-        <v>2656</v>
+        <v>2577</v>
       </c>
       <c r="D77" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E77" t="n">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="F77" t="n">
-        <v>3474</v>
+        <v>8836</v>
       </c>
       <c r="G77" t="n">
-        <v>8671</v>
+        <v>13954</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3600,10 +3600,10 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>26.7</v>
+        <v>17.6</v>
       </c>
       <c r="K77" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="78">
@@ -3613,22 +3613,22 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2318</v>
+        <v>4430</v>
       </c>
       <c r="C78" t="n">
-        <v>2656</v>
+        <v>2517</v>
       </c>
       <c r="D78" t="n">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E78" t="n">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="F78" t="n">
-        <v>3474</v>
+        <v>13477</v>
       </c>
       <c r="G78" t="n">
-        <v>8671</v>
+        <v>20562</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>26.7</v>
+        <v>21.5</v>
       </c>
       <c r="K78" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="79">
@@ -3654,22 +3654,22 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2318</v>
+        <v>3039</v>
       </c>
       <c r="C79" t="n">
-        <v>2656</v>
+        <v>2347</v>
       </c>
       <c r="D79" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E79" t="n">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="F79" t="n">
-        <v>3474</v>
+        <v>13117</v>
       </c>
       <c r="G79" t="n">
-        <v>8671</v>
+        <v>18595</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3682,10 +3682,10 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>26.7</v>
+        <v>16.3</v>
       </c>
       <c r="K79" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="80">
@@ -3695,22 +3695,22 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2318</v>
+        <v>2652</v>
       </c>
       <c r="C80" t="n">
-        <v>2656</v>
+        <v>2395</v>
       </c>
       <c r="D80" t="n">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="E80" t="n">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="F80" t="n">
-        <v>3474</v>
+        <v>15026</v>
       </c>
       <c r="G80" t="n">
-        <v>8671</v>
+        <v>20286</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3723,10 +3723,10 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>26.7</v>
+        <v>13.1</v>
       </c>
       <c r="K80" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="81">
@@ -3736,22 +3736,22 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>2318</v>
+        <v>2403</v>
       </c>
       <c r="C81" t="n">
-        <v>2656</v>
+        <v>2404</v>
       </c>
       <c r="D81" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E81" t="n">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="F81" t="n">
-        <v>3474</v>
+        <v>14954</v>
       </c>
       <c r="G81" t="n">
-        <v>8671</v>
+        <v>20053</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>26.7</v>
+        <v>12</v>
       </c>
       <c r="K81" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="82">
@@ -3777,22 +3777,22 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2318</v>
+        <v>2969</v>
       </c>
       <c r="C82" t="n">
-        <v>2656</v>
+        <v>2438</v>
       </c>
       <c r="D82" t="n">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="E82" t="n">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="F82" t="n">
-        <v>3474</v>
+        <v>15448</v>
       </c>
       <c r="G82" t="n">
-        <v>8671</v>
+        <v>21109</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3805,10 +3805,10 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>26.7</v>
+        <v>14.1</v>
       </c>
       <c r="K82" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="83">
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>2318</v>
+        <v>3190</v>
       </c>
       <c r="C83" t="n">
-        <v>2656</v>
+        <v>2762</v>
       </c>
       <c r="D83" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E83" t="n">
-        <v>177</v>
+        <v>54</v>
       </c>
       <c r="F83" t="n">
-        <v>3474</v>
+        <v>12210</v>
       </c>
       <c r="G83" t="n">
-        <v>8671</v>
+        <v>18281</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3846,10 +3846,10 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>26.7</v>
+        <v>17.4</v>
       </c>
       <c r="K83" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="84">
@@ -3859,22 +3859,22 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2318</v>
+        <v>3155</v>
       </c>
       <c r="C84" t="n">
-        <v>2656</v>
+        <v>2809</v>
       </c>
       <c r="D84" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E84" t="n">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="F84" t="n">
-        <v>3474</v>
+        <v>9767</v>
       </c>
       <c r="G84" t="n">
-        <v>8671</v>
+        <v>15838</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>26.7</v>
+        <v>19.9</v>
       </c>
       <c r="K84" t="n">
         <v>0.3</v>
@@ -3900,22 +3900,22 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>2318</v>
+        <v>2568</v>
       </c>
       <c r="C85" t="n">
-        <v>2656</v>
+        <v>1945</v>
       </c>
       <c r="D85" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E85" t="n">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="F85" t="n">
-        <v>3474</v>
+        <v>8215</v>
       </c>
       <c r="G85" t="n">
-        <v>8671</v>
+        <v>12832</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3928,10 +3928,10 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>26.7</v>
+        <v>20</v>
       </c>
       <c r="K85" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="86">
@@ -3941,22 +3941,22 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2318</v>
+        <v>2174</v>
       </c>
       <c r="C86" t="n">
-        <v>2656</v>
+        <v>2285</v>
       </c>
       <c r="D86" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E86" t="n">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="F86" t="n">
-        <v>3474</v>
+        <v>7836</v>
       </c>
       <c r="G86" t="n">
-        <v>8671</v>
+        <v>12461</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3969,10 +3969,10 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>26.7</v>
+        <v>17.4</v>
       </c>
       <c r="K86" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="87">
@@ -3982,22 +3982,22 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>2318</v>
+        <v>1919</v>
       </c>
       <c r="C87" t="n">
-        <v>2656</v>
+        <v>2315</v>
       </c>
       <c r="D87" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E87" t="n">
-        <v>177</v>
+        <v>344</v>
       </c>
       <c r="F87" t="n">
-        <v>3474</v>
+        <v>7806</v>
       </c>
       <c r="G87" t="n">
-        <v>8671</v>
+        <v>12446</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -4010,10 +4010,10 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>26.7</v>
+        <v>15.4</v>
       </c>
       <c r="K87" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="88">
@@ -4023,22 +4023,22 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2318</v>
+        <v>2506</v>
       </c>
       <c r="C88" t="n">
-        <v>2656</v>
+        <v>2727</v>
       </c>
       <c r="D88" t="n">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E88" t="n">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F88" t="n">
-        <v>3474</v>
+        <v>6377</v>
       </c>
       <c r="G88" t="n">
-        <v>8671</v>
+        <v>11805</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>26.7</v>
+        <v>21.2</v>
       </c>
       <c r="K88" t="n">
         <v>0.3</v>
@@ -4064,22 +4064,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2318</v>
+        <v>2846</v>
       </c>
       <c r="C89" t="n">
-        <v>2656</v>
+        <v>2595</v>
       </c>
       <c r="D89" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E89" t="n">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="F89" t="n">
-        <v>3474</v>
+        <v>3976</v>
       </c>
       <c r="G89" t="n">
-        <v>8671</v>
+        <v>9518</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>26.7</v>
+        <v>29.9</v>
       </c>
       <c r="K89" t="n">
         <v>0.3</v>
@@ -4105,22 +4105,22 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2318</v>
+        <v>3212</v>
       </c>
       <c r="C90" t="n">
-        <v>2656</v>
+        <v>2771</v>
       </c>
       <c r="D90" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E90" t="n">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="F90" t="n">
-        <v>3474</v>
+        <v>5338</v>
       </c>
       <c r="G90" t="n">
-        <v>8671</v>
+        <v>11440</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -4133,10 +4133,10 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>26.7</v>
+        <v>28.1</v>
       </c>
       <c r="K90" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="91">
@@ -4146,22 +4146,22 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2318</v>
+        <v>3087</v>
       </c>
       <c r="C91" t="n">
-        <v>2656</v>
+        <v>2207</v>
       </c>
       <c r="D91" t="n">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="E91" t="n">
-        <v>177</v>
+        <v>110</v>
       </c>
       <c r="F91" t="n">
-        <v>3474</v>
+        <v>4001</v>
       </c>
       <c r="G91" t="n">
-        <v>8671</v>
+        <v>9530</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>26.7</v>
+        <v>32.4</v>
       </c>
       <c r="K91" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="92">
@@ -4187,22 +4187,22 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2318</v>
+        <v>2651</v>
       </c>
       <c r="C92" t="n">
-        <v>2656</v>
+        <v>2452</v>
       </c>
       <c r="D92" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E92" t="n">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="F92" t="n">
-        <v>3474</v>
+        <v>4841</v>
       </c>
       <c r="G92" t="n">
-        <v>8671</v>
+        <v>10127</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="K92" t="n">
         <v>0.3</v>
@@ -4228,22 +4228,22 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2318</v>
+        <v>2597</v>
       </c>
       <c r="C93" t="n">
-        <v>2656</v>
+        <v>2445</v>
       </c>
       <c r="D93" t="n">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="E93" t="n">
-        <v>177</v>
+        <v>291</v>
       </c>
       <c r="F93" t="n">
-        <v>3474</v>
+        <v>4500</v>
       </c>
       <c r="G93" t="n">
-        <v>8671</v>
+        <v>9945</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>26.7</v>
+        <v>26.1</v>
       </c>
       <c r="K93" t="n">
         <v>0.3</v>
@@ -4269,22 +4269,22 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2318</v>
+        <v>2970</v>
       </c>
       <c r="C94" t="n">
-        <v>2656</v>
+        <v>2797</v>
       </c>
       <c r="D94" t="n">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E94" t="n">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="F94" t="n">
-        <v>3474</v>
+        <v>3691</v>
       </c>
       <c r="G94" t="n">
-        <v>8671</v>
+        <v>9771</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -4297,10 +4297,10 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>26.7</v>
+        <v>30.4</v>
       </c>
       <c r="K94" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="95">
@@ -4310,22 +4310,22 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2318</v>
+        <v>2984</v>
       </c>
       <c r="C95" t="n">
-        <v>2656</v>
+        <v>2569</v>
       </c>
       <c r="D95" t="n">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E95" t="n">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="F95" t="n">
-        <v>3474</v>
+        <v>4275</v>
       </c>
       <c r="G95" t="n">
-        <v>8671</v>
+        <v>10023</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -4338,7 +4338,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>26.7</v>
+        <v>29.8</v>
       </c>
       <c r="K95" t="n">
         <v>0.3</v>
@@ -4351,22 +4351,22 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2318</v>
+        <v>2766</v>
       </c>
       <c r="C96" t="n">
-        <v>2656</v>
+        <v>2851</v>
       </c>
       <c r="D96" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="E96" t="n">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="F96" t="n">
-        <v>3474</v>
+        <v>3084</v>
       </c>
       <c r="G96" t="n">
-        <v>8671</v>
+        <v>8826</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>26.7</v>
+        <v>31.3</v>
       </c>
       <c r="K96" t="n">
         <v>0.3</v>
@@ -4392,22 +4392,22 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2318</v>
+        <v>2593</v>
       </c>
       <c r="C97" t="n">
-        <v>2656</v>
+        <v>2047</v>
       </c>
       <c r="D97" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E97" t="n">
-        <v>177</v>
+        <v>99</v>
       </c>
       <c r="F97" t="n">
-        <v>3474</v>
+        <v>2730</v>
       </c>
       <c r="G97" t="n">
-        <v>8671</v>
+        <v>7524</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>26.7</v>
+        <v>34.5</v>
       </c>
       <c r="K97" t="n">
         <v>0.3</v>
@@ -4433,22 +4433,22 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>2318</v>
+        <v>2150</v>
       </c>
       <c r="C98" t="n">
-        <v>2656</v>
+        <v>2374</v>
       </c>
       <c r="D98" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E98" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F98" t="n">
-        <v>3474</v>
+        <v>2689</v>
       </c>
       <c r="G98" t="n">
-        <v>8671</v>
+        <v>7421</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>26.7</v>
+        <v>29</v>
       </c>
       <c r="K98" t="n">
         <v>0.3</v>
@@ -4474,22 +4474,22 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2318</v>
+        <v>1968</v>
       </c>
       <c r="C99" t="n">
-        <v>2656</v>
+        <v>1973</v>
       </c>
       <c r="D99" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E99" t="n">
-        <v>177</v>
+        <v>354</v>
       </c>
       <c r="F99" t="n">
-        <v>3474</v>
+        <v>2772</v>
       </c>
       <c r="G99" t="n">
-        <v>8671</v>
+        <v>7093</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -4502,10 +4502,10 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>26.7</v>
+        <v>27.7</v>
       </c>
       <c r="K99" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="100">
@@ -4515,22 +4515,22 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2318</v>
+        <v>2694</v>
       </c>
       <c r="C100" t="n">
-        <v>2656</v>
+        <v>2807</v>
       </c>
       <c r="D100" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E100" t="n">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="F100" t="n">
-        <v>3474</v>
+        <v>3594</v>
       </c>
       <c r="G100" t="n">
-        <v>8671</v>
+        <v>9363</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>26.7</v>
+        <v>28.8</v>
       </c>
       <c r="K100" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="101">
@@ -4556,22 +4556,22 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2318</v>
+        <v>3281</v>
       </c>
       <c r="C101" t="n">
-        <v>2656</v>
+        <v>3003</v>
       </c>
       <c r="D101" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="E101" t="n">
-        <v>177</v>
+        <v>61</v>
       </c>
       <c r="F101" t="n">
-        <v>3474</v>
+        <v>4212</v>
       </c>
       <c r="G101" t="n">
-        <v>8671</v>
+        <v>10641</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>26.7</v>
+        <v>30.8</v>
       </c>
       <c r="K101" t="n">
         <v>0.3</v>
@@ -4597,22 +4597,22 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2318</v>
+        <v>3562</v>
       </c>
       <c r="C102" t="n">
-        <v>2656</v>
+        <v>3029</v>
       </c>
       <c r="D102" t="n">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E102" t="n">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F102" t="n">
-        <v>3474</v>
+        <v>4889</v>
       </c>
       <c r="G102" t="n">
-        <v>8671</v>
+        <v>11625</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -4625,10 +4625,10 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>26.7</v>
+        <v>30.6</v>
       </c>
       <c r="K102" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="103">
@@ -4638,22 +4638,22 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2318</v>
+        <v>3501</v>
       </c>
       <c r="C103" t="n">
-        <v>2656</v>
+        <v>2577</v>
       </c>
       <c r="D103" t="n">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="E103" t="n">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="F103" t="n">
-        <v>3474</v>
+        <v>4061</v>
       </c>
       <c r="G103" t="n">
-        <v>8671</v>
+        <v>10346</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>26.7</v>
+        <v>33.8</v>
       </c>
       <c r="K103" t="n">
         <v>0.3</v>
@@ -4679,22 +4679,22 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>2318</v>
+        <v>3231</v>
       </c>
       <c r="C104" t="n">
-        <v>2656</v>
+        <v>2803</v>
       </c>
       <c r="D104" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E104" t="n">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="F104" t="n">
-        <v>3474</v>
+        <v>3690</v>
       </c>
       <c r="G104" t="n">
-        <v>8671</v>
+        <v>9929</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>26.7</v>
+        <v>32.5</v>
       </c>
       <c r="K104" t="n">
         <v>0.3</v>
@@ -4720,22 +4720,22 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>2318</v>
+        <v>3092</v>
       </c>
       <c r="C105" t="n">
-        <v>2656</v>
+        <v>2722</v>
       </c>
       <c r="D105" t="n">
-        <v>46</v>
+        <v>158</v>
       </c>
       <c r="E105" t="n">
-        <v>177</v>
+        <v>319</v>
       </c>
       <c r="F105" t="n">
-        <v>3474</v>
+        <v>4319</v>
       </c>
       <c r="G105" t="n">
-        <v>8671</v>
+        <v>10610</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>26.7</v>
+        <v>29.1</v>
       </c>
       <c r="K105" t="n">
         <v>0.3</v>
@@ -4761,22 +4761,22 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2318</v>
+        <v>3680</v>
       </c>
       <c r="C106" t="n">
-        <v>2656</v>
+        <v>2967</v>
       </c>
       <c r="D106" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="E106" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F106" t="n">
-        <v>3474</v>
+        <v>4492</v>
       </c>
       <c r="G106" t="n">
-        <v>8671</v>
+        <v>11393</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4789,10 +4789,10 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>26.7</v>
+        <v>32.3</v>
       </c>
       <c r="K106" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="107">
@@ -4802,22 +4802,22 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>2318</v>
+        <v>4147</v>
       </c>
       <c r="C107" t="n">
-        <v>2656</v>
+        <v>3492</v>
       </c>
       <c r="D107" t="n">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E107" t="n">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="F107" t="n">
-        <v>3474</v>
+        <v>4882</v>
       </c>
       <c r="G107" t="n">
-        <v>8671</v>
+        <v>12683</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4830,7 +4830,7 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>26.7</v>
+        <v>32.7</v>
       </c>
       <c r="K107" t="n">
         <v>0.3</v>
@@ -4843,22 +4843,22 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2318</v>
+        <v>3618</v>
       </c>
       <c r="C108" t="n">
-        <v>2656</v>
+        <v>2928</v>
       </c>
       <c r="D108" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E108" t="n">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="F108" t="n">
-        <v>3474</v>
+        <v>3571</v>
       </c>
       <c r="G108" t="n">
-        <v>8671</v>
+        <v>10247</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>26.7</v>
+        <v>35.3</v>
       </c>
       <c r="K108" t="n">
         <v>0.3</v>
@@ -4884,22 +4884,22 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2318</v>
+        <v>3090</v>
       </c>
       <c r="C109" t="n">
-        <v>2656</v>
+        <v>2215</v>
       </c>
       <c r="D109" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E109" t="n">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="F109" t="n">
-        <v>3474</v>
+        <v>3044</v>
       </c>
       <c r="G109" t="n">
-        <v>8671</v>
+        <v>8440</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>26.7</v>
+        <v>36.6</v>
       </c>
       <c r="K109" t="n">
         <v>0.3</v>
@@ -4966,22 +4966,22 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2318</v>
+        <v>2372</v>
       </c>
       <c r="C111" t="n">
-        <v>2656</v>
+        <v>2303</v>
       </c>
       <c r="D111" t="n">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="E111" t="n">
-        <v>177</v>
+        <v>360</v>
       </c>
       <c r="F111" t="n">
-        <v>3474</v>
+        <v>3172</v>
       </c>
       <c r="G111" t="n">
-        <v>8671</v>
+        <v>8309</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>26.7</v>
+        <v>28.5</v>
       </c>
       <c r="K111" t="n">
         <v>0.3</v>
@@ -5007,22 +5007,22 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2318</v>
+        <v>3051</v>
       </c>
       <c r="C112" t="n">
-        <v>2656</v>
+        <v>3283</v>
       </c>
       <c r="D112" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E112" t="n">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="F112" t="n">
-        <v>3474</v>
+        <v>4063</v>
       </c>
       <c r="G112" t="n">
-        <v>8671</v>
+        <v>10646</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -5035,10 +5035,10 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>26.7</v>
+        <v>28.7</v>
       </c>
       <c r="K112" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="113">
@@ -5048,22 +5048,22 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2318</v>
+        <v>4088</v>
       </c>
       <c r="C113" t="n">
-        <v>2656</v>
+        <v>3039</v>
       </c>
       <c r="D113" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E113" t="n">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="F113" t="n">
-        <v>3474</v>
+        <v>5678</v>
       </c>
       <c r="G113" t="n">
-        <v>8671</v>
+        <v>12933</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>26.7</v>
+        <v>31.6</v>
       </c>
       <c r="K113" t="n">
         <v>0.3</v>
@@ -5089,22 +5089,22 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2318</v>
+        <v>4483</v>
       </c>
       <c r="C114" t="n">
-        <v>2656</v>
+        <v>2896</v>
       </c>
       <c r="D114" t="n">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="E114" t="n">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="F114" t="n">
-        <v>3474</v>
+        <v>6288</v>
       </c>
       <c r="G114" t="n">
-        <v>8671</v>
+        <v>13858</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -5117,10 +5117,10 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>26.7</v>
+        <v>32.3</v>
       </c>
       <c r="K114" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="115">
@@ -5130,22 +5130,22 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2318</v>
+        <v>4892</v>
       </c>
       <c r="C115" t="n">
-        <v>2656</v>
+        <v>3084</v>
       </c>
       <c r="D115" t="n">
-        <v>46</v>
+        <v>194</v>
       </c>
       <c r="E115" t="n">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="F115" t="n">
-        <v>3474</v>
+        <v>4958</v>
       </c>
       <c r="G115" t="n">
-        <v>8671</v>
+        <v>13249</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -5158,10 +5158,10 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>26.7</v>
+        <v>36.9</v>
       </c>
       <c r="K115" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="116">
@@ -5171,22 +5171,22 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>2318</v>
+        <v>3509</v>
       </c>
       <c r="C116" t="n">
-        <v>2656</v>
+        <v>2828</v>
       </c>
       <c r="D116" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E116" t="n">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="F116" t="n">
-        <v>3474</v>
+        <v>3902</v>
       </c>
       <c r="G116" t="n">
-        <v>8671</v>
+        <v>10432</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>26.7</v>
+        <v>33.6</v>
       </c>
       <c r="K116" t="n">
         <v>0.3</v>
@@ -5212,22 +5212,22 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2318</v>
+        <v>3870</v>
       </c>
       <c r="C117" t="n">
-        <v>2656</v>
+        <v>2850</v>
       </c>
       <c r="D117" t="n">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="E117" t="n">
-        <v>177</v>
+        <v>341</v>
       </c>
       <c r="F117" t="n">
-        <v>3474</v>
+        <v>9826</v>
       </c>
       <c r="G117" t="n">
-        <v>8671</v>
+        <v>17001</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -5240,7 +5240,7 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>26.7</v>
+        <v>22.8</v>
       </c>
       <c r="K117" t="n">
         <v>0.3</v>
@@ -5253,22 +5253,22 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2318</v>
+        <v>4111</v>
       </c>
       <c r="C118" t="n">
-        <v>2656</v>
+        <v>3152</v>
       </c>
       <c r="D118" t="n">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E118" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="F118" t="n">
-        <v>3474</v>
+        <v>5121</v>
       </c>
       <c r="G118" t="n">
-        <v>8671</v>
+        <v>12716</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>26.7</v>
+        <v>32.3</v>
       </c>
       <c r="K118" t="n">
         <v>0.3</v>
@@ -5294,22 +5294,22 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2318</v>
+        <v>4403</v>
       </c>
       <c r="C119" t="n">
-        <v>2656</v>
+        <v>2692</v>
       </c>
       <c r="D119" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="E119" t="n">
-        <v>177</v>
+        <v>84</v>
       </c>
       <c r="F119" t="n">
-        <v>3474</v>
+        <v>5896</v>
       </c>
       <c r="G119" t="n">
-        <v>8671</v>
+        <v>13160</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>26.7</v>
+        <v>33.5</v>
       </c>
       <c r="K119" t="n">
         <v>0.3</v>
@@ -5335,22 +5335,22 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2318</v>
+        <v>4149</v>
       </c>
       <c r="C120" t="n">
-        <v>2656</v>
+        <v>3386</v>
       </c>
       <c r="D120" t="n">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="E120" t="n">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="F120" t="n">
-        <v>3474</v>
+        <v>4434</v>
       </c>
       <c r="G120" t="n">
-        <v>8671</v>
+        <v>12184</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>26.7</v>
+        <v>34.1</v>
       </c>
       <c r="K120" t="n">
         <v>0.3</v>
@@ -5376,22 +5376,22 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2318</v>
+        <v>3697</v>
       </c>
       <c r="C121" t="n">
-        <v>2656</v>
+        <v>2183</v>
       </c>
       <c r="D121" t="n">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="E121" t="n">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="F121" t="n">
-        <v>3474</v>
+        <v>4140</v>
       </c>
       <c r="G121" t="n">
-        <v>8671</v>
+        <v>10208</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>26.7</v>
+        <v>36.2</v>
       </c>
       <c r="K121" t="n">
         <v>0.3</v>
@@ -5417,22 +5417,22 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2318</v>
+        <v>2391</v>
       </c>
       <c r="C122" t="n">
-        <v>2656</v>
+        <v>2094</v>
       </c>
       <c r="D122" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E122" t="n">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="F122" t="n">
-        <v>3474</v>
+        <v>4542</v>
       </c>
       <c r="G122" t="n">
-        <v>8671</v>
+        <v>9249</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
@@ -5445,10 +5445,10 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>26.7</v>
+        <v>25.9</v>
       </c>
       <c r="K122" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="123">
@@ -5458,22 +5458,22 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2318</v>
+        <v>2061</v>
       </c>
       <c r="C123" t="n">
-        <v>2656</v>
+        <v>972</v>
       </c>
       <c r="D123" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E123" t="n">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="F123" t="n">
-        <v>3474</v>
+        <v>2503</v>
       </c>
       <c r="G123" t="n">
-        <v>8671</v>
+        <v>5839</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
@@ -5486,10 +5486,10 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>26.7</v>
+        <v>35.3</v>
       </c>
       <c r="K123" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="124">
@@ -5499,22 +5499,22 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2318</v>
+        <v>555</v>
       </c>
       <c r="C124" t="n">
-        <v>2656</v>
+        <v>42</v>
       </c>
       <c r="D124" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="E124" t="n">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="F124" t="n">
-        <v>3474</v>
+        <v>893</v>
       </c>
       <c r="G124" t="n">
-        <v>8671</v>
+        <v>1587</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
@@ -5527,10 +5527,10 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>26.7</v>
+        <v>35</v>
       </c>
       <c r="K124" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="125">
@@ -5540,22 +5540,22 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2318</v>
+        <v>46</v>
       </c>
       <c r="C125" t="n">
-        <v>2656</v>
+        <v>7</v>
       </c>
       <c r="D125" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="F125" t="n">
-        <v>3474</v>
+        <v>151</v>
       </c>
       <c r="G125" t="n">
-        <v>8671</v>
+        <v>210</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>26.7</v>
+        <v>21.9</v>
       </c>
       <c r="K125" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="126">
@@ -5581,22 +5581,22 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2318</v>
+        <v>95</v>
       </c>
       <c r="C126" t="n">
-        <v>2656</v>
+        <v>15</v>
       </c>
       <c r="D126" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="F126" t="n">
-        <v>3474</v>
+        <v>302</v>
       </c>
       <c r="G126" t="n">
-        <v>8671</v>
+        <v>415</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
@@ -5609,10 +5609,10 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>26.7</v>
+        <v>22.9</v>
       </c>
       <c r="K126" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
     </row>
   </sheetData>
